--- a/SendMail/SendMail/テスト仕様書_山根大樹.xlsx
+++ b/SendMail/SendMail/テスト仕様書_山根大樹.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infosys\source\repos\YamaneDaiki\OOP2021\SendMail\SendMail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9732E624-2BF8-4C88-ACBA-CF70A2DA27DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0AE3C2-04D8-4753-861A-0B24A05B9FAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11400" tabRatio="476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -664,9 +664,6 @@
   </si>
   <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>NG</t>
   </si>
   <si>
     <t>山根大樹</t>
@@ -1033,7 +1030,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,9 +1075,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1460,8 +1454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="74.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -1477,38 +1471,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>62</v>
+      <c r="G2" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <v>44482</v>
       </c>
       <c r="AA2" t="s">
@@ -1516,46 +1510,50 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="15">
+        <v>44522</v>
+      </c>
       <c r="AA3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="1:27" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="33"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="7" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -1565,21 +1563,21 @@
       <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31" t="s">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="30" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1590,9 +1588,9 @@
       <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="41"/>
       <c r="F8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1602,7 +1600,7 @@
       <c r="H8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="32"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -1620,13 +1618,13 @@
       <c r="E9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H9" s="19"/>
       <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1641,13 +1639,13 @@
       <c r="E10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H10" s="19"/>
       <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1662,13 +1660,13 @@
       <c r="E11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H11" s="19"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1683,13 +1681,13 @@
       <c r="E12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H12" s="19"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1708,13 +1706,13 @@
       <c r="E13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H13" s="19"/>
       <c r="I13" s="5"/>
     </row>
     <row r="14" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1729,11 +1727,11 @@
       <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
@@ -1754,13 +1752,13 @@
       <c r="E15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H15" s="19"/>
       <c r="I15" s="5"/>
     </row>
     <row r="16" spans="1:27" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1775,14 +1773,14 @@
       <c r="E16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>61</v>
+      <c r="F16" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
+        <v>62</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -1800,14 +1798,14 @@
       <c r="E17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1823,14 +1821,14 @@
       <c r="E18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1850,13 +1848,13 @@
       <c r="E19" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="20"/>
+        <v>62</v>
+      </c>
+      <c r="H19" s="19"/>
       <c r="I19" s="5" t="s">
         <v>49</v>
       </c>
@@ -1873,11 +1871,11 @@
       <c r="E20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -1894,11 +1892,11 @@
       <c r="E21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -1915,11 +1913,11 @@
       <c r="E22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="5" t="s">
@@ -1938,11 +1936,11 @@
       <c r="E23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="17" t="s">
+      <c r="F23" s="16" t="s">
         <v>60</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
@@ -1953,7 +1951,7 @@
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
-      <c r="F24" s="17"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
@@ -1964,7 +1962,7 @@
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
-      <c r="F25" s="17"/>
+      <c r="F25" s="16"/>
       <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
@@ -1975,7 +1973,7 @@
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
-      <c r="F26" s="17"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
@@ -1986,7 +1984,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
-      <c r="F27" s="17"/>
+      <c r="F27" s="16"/>
       <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
@@ -1997,7 +1995,7 @@
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="16"/>
       <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
@@ -2008,7 +2006,7 @@
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
-      <c r="F29" s="17"/>
+      <c r="F29" s="16"/>
       <c r="G29" s="3"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
@@ -2019,7 +2017,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
       <c r="E30" s="13"/>
-      <c r="F30" s="17"/>
+      <c r="F30" s="16"/>
       <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
@@ -2030,7 +2028,7 @@
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
       <c r="E31" s="13"/>
-      <c r="F31" s="17"/>
+      <c r="F31" s="16"/>
       <c r="G31" s="3"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
@@ -2041,7 +2039,7 @@
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
       <c r="E32" s="13"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="16"/>
       <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
@@ -2052,7 +2050,7 @@
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
       <c r="E33" s="13"/>
-      <c r="F33" s="17"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
@@ -2063,7 +2061,7 @@
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="17"/>
+      <c r="F34" s="16"/>
       <c r="G34" s="3"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
@@ -2074,7 +2072,7 @@
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="17"/>
+      <c r="F35" s="16"/>
       <c r="G35" s="3"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
@@ -2085,7 +2083,7 @@
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="16"/>
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
@@ -2096,7 +2094,7 @@
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="17"/>
+      <c r="F37" s="16"/>
       <c r="G37" s="3"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
@@ -2107,7 +2105,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="17"/>
+      <c r="F38" s="16"/>
       <c r="G38" s="3"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
@@ -2118,7 +2116,7 @@
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="17"/>
+      <c r="F39" s="16"/>
       <c r="G39" s="3"/>
       <c r="H39" s="4"/>
       <c r="I39" s="5"/>
@@ -2129,7 +2127,7 @@
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="17"/>
+      <c r="F40" s="16"/>
       <c r="G40" s="3"/>
       <c r="H40" s="4"/>
       <c r="I40" s="5"/>
@@ -2140,7 +2138,7 @@
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="16"/>
       <c r="G41" s="3"/>
       <c r="H41" s="4"/>
       <c r="I41" s="5"/>
@@ -2151,7 +2149,7 @@
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="17"/>
+      <c r="F42" s="16"/>
       <c r="G42" s="3"/>
       <c r="H42" s="4"/>
       <c r="I42" s="5"/>
@@ -2162,7 +2160,7 @@
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="16"/>
       <c r="G43" s="3"/>
       <c r="H43" s="4"/>
       <c r="I43" s="5"/>
@@ -2173,7 +2171,7 @@
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
       <c r="E44" s="13"/>
-      <c r="F44" s="17"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="3"/>
       <c r="H44" s="4"/>
       <c r="I44" s="5"/>
@@ -2184,7 +2182,7 @@
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
       <c r="E45" s="13"/>
-      <c r="F45" s="17"/>
+      <c r="F45" s="16"/>
       <c r="G45" s="3"/>
       <c r="H45" s="4"/>
       <c r="I45" s="5"/>
@@ -2195,7 +2193,7 @@
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="17"/>
+      <c r="F46" s="16"/>
       <c r="G46" s="3"/>
       <c r="H46" s="4"/>
       <c r="I46" s="5"/>
@@ -2206,7 +2204,7 @@
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="17"/>
+      <c r="F47" s="16"/>
       <c r="G47" s="3"/>
       <c r="H47" s="4"/>
       <c r="I47" s="5"/>
@@ -2217,7 +2215,7 @@
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="17"/>
+      <c r="F48" s="16"/>
       <c r="G48" s="3"/>
       <c r="H48" s="4"/>
       <c r="I48" s="5"/>
@@ -2228,7 +2226,7 @@
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="17"/>
+      <c r="F49" s="16"/>
       <c r="G49" s="3"/>
       <c r="H49" s="4"/>
       <c r="I49" s="5"/>
@@ -2239,7 +2237,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="17"/>
+      <c r="F50" s="16"/>
       <c r="G50" s="3"/>
       <c r="H50" s="4"/>
       <c r="I50" s="5"/>
@@ -2250,7 +2248,7 @@
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="17"/>
+      <c r="F51" s="16"/>
       <c r="G51" s="3"/>
       <c r="H51" s="4"/>
       <c r="I51" s="5"/>
@@ -2261,7 +2259,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="17"/>
+      <c r="F52" s="16"/>
       <c r="G52" s="3"/>
       <c r="H52" s="4"/>
       <c r="I52" s="5"/>
@@ -2272,7 +2270,7 @@
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="17"/>
+      <c r="F53" s="16"/>
       <c r="G53" s="3"/>
       <c r="H53" s="4"/>
       <c r="I53" s="5"/>
@@ -2283,7 +2281,7 @@
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="17"/>
+      <c r="F54" s="16"/>
       <c r="G54" s="3"/>
       <c r="H54" s="4"/>
       <c r="I54" s="5"/>
@@ -2294,7 +2292,7 @@
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
       <c r="E55" s="13"/>
-      <c r="F55" s="17"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="3"/>
       <c r="H55" s="4"/>
       <c r="I55" s="5"/>
@@ -2305,7 +2303,7 @@
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
       <c r="E56" s="13"/>
-      <c r="F56" s="17"/>
+      <c r="F56" s="16"/>
       <c r="G56" s="3"/>
       <c r="H56" s="4"/>
       <c r="I56" s="5"/>
@@ -2316,7 +2314,7 @@
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="16"/>
       <c r="G57" s="3"/>
       <c r="H57" s="4"/>
       <c r="I57" s="5"/>
@@ -2327,7 +2325,7 @@
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="17"/>
+      <c r="F58" s="16"/>
       <c r="G58" s="3"/>
       <c r="H58" s="4"/>
       <c r="I58" s="5"/>
@@ -2338,7 +2336,7 @@
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="17"/>
+      <c r="F59" s="16"/>
       <c r="G59" s="3"/>
       <c r="H59" s="4"/>
       <c r="I59" s="5"/>
@@ -2349,7 +2347,7 @@
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="17"/>
+      <c r="F60" s="16"/>
       <c r="G60" s="3"/>
       <c r="H60" s="4"/>
       <c r="I60" s="5"/>
@@ -2360,7 +2358,7 @@
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="17"/>
+      <c r="F61" s="16"/>
       <c r="G61" s="3"/>
       <c r="H61" s="4"/>
       <c r="I61" s="5"/>
@@ -2371,7 +2369,7 @@
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="17"/>
+      <c r="F62" s="16"/>
       <c r="G62" s="3"/>
       <c r="H62" s="4"/>
       <c r="I62" s="5"/>
@@ -2382,7 +2380,7 @@
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
       <c r="E63" s="13"/>
-      <c r="F63" s="17"/>
+      <c r="F63" s="16"/>
       <c r="G63" s="3"/>
       <c r="H63" s="4"/>
       <c r="I63" s="5"/>
@@ -2393,7 +2391,7 @@
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
       <c r="E64" s="13"/>
-      <c r="F64" s="17"/>
+      <c r="F64" s="16"/>
       <c r="G64" s="3"/>
       <c r="H64" s="4"/>
       <c r="I64" s="5"/>
@@ -2404,7 +2402,7 @@
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
       <c r="E65" s="13"/>
-      <c r="F65" s="17"/>
+      <c r="F65" s="16"/>
       <c r="G65" s="3"/>
       <c r="H65" s="4"/>
       <c r="I65" s="5"/>
@@ -2415,7 +2413,7 @@
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
       <c r="E66" s="13"/>
-      <c r="F66" s="17"/>
+      <c r="F66" s="16"/>
       <c r="G66" s="3"/>
       <c r="H66" s="4"/>
       <c r="I66" s="5"/>
@@ -2426,7 +2424,7 @@
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
       <c r="E67" s="13"/>
-      <c r="F67" s="17"/>
+      <c r="F67" s="16"/>
       <c r="G67" s="3"/>
       <c r="H67" s="4"/>
       <c r="I67" s="5"/>
@@ -2437,7 +2435,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
       <c r="E68" s="13"/>
-      <c r="F68" s="17"/>
+      <c r="F68" s="16"/>
       <c r="G68" s="3"/>
       <c r="H68" s="4"/>
       <c r="I68" s="5"/>
@@ -2448,7 +2446,7 @@
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
       <c r="E69" s="13"/>
-      <c r="F69" s="17"/>
+      <c r="F69" s="16"/>
       <c r="G69" s="3"/>
       <c r="H69" s="4"/>
       <c r="I69" s="5"/>
@@ -2459,7 +2457,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
       <c r="E70" s="13"/>
-      <c r="F70" s="17"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="3"/>
       <c r="H70" s="4"/>
       <c r="I70" s="5"/>
@@ -2470,7 +2468,7 @@
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
       <c r="E71" s="13"/>
-      <c r="F71" s="17"/>
+      <c r="F71" s="16"/>
       <c r="G71" s="3"/>
       <c r="H71" s="4"/>
       <c r="I71" s="5"/>
@@ -2481,7 +2479,7 @@
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
       <c r="E72" s="13"/>
-      <c r="F72" s="17"/>
+      <c r="F72" s="16"/>
       <c r="G72" s="3"/>
       <c r="H72" s="4"/>
       <c r="I72" s="5"/>
@@ -2492,7 +2490,7 @@
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
       <c r="E73" s="13"/>
-      <c r="F73" s="17"/>
+      <c r="F73" s="16"/>
       <c r="G73" s="3"/>
       <c r="H73" s="4"/>
       <c r="I73" s="5"/>
@@ -2503,7 +2501,7 @@
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
       <c r="E74" s="13"/>
-      <c r="F74" s="17"/>
+      <c r="F74" s="16"/>
       <c r="G74" s="3"/>
       <c r="H74" s="4"/>
       <c r="I74" s="5"/>
@@ -2514,7 +2512,7 @@
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
       <c r="E75" s="13"/>
-      <c r="F75" s="17"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="3"/>
       <c r="H75" s="4"/>
       <c r="I75" s="5"/>
@@ -2525,7 +2523,7 @@
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
       <c r="E76" s="13"/>
-      <c r="F76" s="17"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="3"/>
       <c r="H76" s="4"/>
       <c r="I76" s="5"/>
@@ -2536,7 +2534,7 @@
       <c r="C77" s="11"/>
       <c r="D77" s="12"/>
       <c r="E77" s="13"/>
-      <c r="F77" s="17"/>
+      <c r="F77" s="16"/>
       <c r="G77" s="3"/>
       <c r="H77" s="4"/>
       <c r="I77" s="5"/>
@@ -2547,7 +2545,7 @@
       <c r="C78" s="11"/>
       <c r="D78" s="12"/>
       <c r="E78" s="13"/>
-      <c r="F78" s="17"/>
+      <c r="F78" s="16"/>
       <c r="G78" s="3"/>
       <c r="H78" s="4"/>
       <c r="I78" s="5"/>
@@ -2558,7 +2556,7 @@
       <c r="C79" s="11"/>
       <c r="D79" s="12"/>
       <c r="E79" s="13"/>
-      <c r="F79" s="17"/>
+      <c r="F79" s="16"/>
       <c r="G79" s="3"/>
       <c r="H79" s="4"/>
       <c r="I79" s="5"/>
@@ -2569,7 +2567,7 @@
       <c r="C80" s="11"/>
       <c r="D80" s="12"/>
       <c r="E80" s="13"/>
-      <c r="F80" s="17"/>
+      <c r="F80" s="16"/>
       <c r="G80" s="3"/>
       <c r="H80" s="4"/>
       <c r="I80" s="5"/>
@@ -2580,7 +2578,7 @@
       <c r="C81" s="11"/>
       <c r="D81" s="12"/>
       <c r="E81" s="13"/>
-      <c r="F81" s="17"/>
+      <c r="F81" s="16"/>
       <c r="G81" s="3"/>
       <c r="H81" s="4"/>
       <c r="I81" s="5"/>
@@ -2591,7 +2589,7 @@
       <c r="C82" s="11"/>
       <c r="D82" s="12"/>
       <c r="E82" s="13"/>
-      <c r="F82" s="17"/>
+      <c r="F82" s="16"/>
       <c r="G82" s="3"/>
       <c r="H82" s="4"/>
       <c r="I82" s="5"/>
@@ -2602,7 +2600,7 @@
       <c r="C83" s="11"/>
       <c r="D83" s="12"/>
       <c r="E83" s="13"/>
-      <c r="F83" s="17"/>
+      <c r="F83" s="16"/>
       <c r="G83" s="3"/>
       <c r="H83" s="4"/>
       <c r="I83" s="5"/>
@@ -2613,7 +2611,7 @@
       <c r="C84" s="11"/>
       <c r="D84" s="12"/>
       <c r="E84" s="13"/>
-      <c r="F84" s="17"/>
+      <c r="F84" s="16"/>
       <c r="G84" s="3"/>
       <c r="H84" s="4"/>
       <c r="I84" s="5"/>
@@ -2624,7 +2622,7 @@
       <c r="C85" s="11"/>
       <c r="D85" s="12"/>
       <c r="E85" s="13"/>
-      <c r="F85" s="17"/>
+      <c r="F85" s="16"/>
       <c r="G85" s="3"/>
       <c r="H85" s="4"/>
       <c r="I85" s="5"/>
@@ -2635,7 +2633,7 @@
       <c r="C86" s="11"/>
       <c r="D86" s="12"/>
       <c r="E86" s="13"/>
-      <c r="F86" s="17"/>
+      <c r="F86" s="16"/>
       <c r="G86" s="3"/>
       <c r="H86" s="4"/>
       <c r="I86" s="5"/>
@@ -2646,7 +2644,7 @@
       <c r="C87" s="11"/>
       <c r="D87" s="12"/>
       <c r="E87" s="13"/>
-      <c r="F87" s="17"/>
+      <c r="F87" s="16"/>
       <c r="G87" s="3"/>
       <c r="H87" s="4"/>
       <c r="I87" s="5"/>
@@ -2657,7 +2655,7 @@
       <c r="C88" s="11"/>
       <c r="D88" s="12"/>
       <c r="E88" s="13"/>
-      <c r="F88" s="17"/>
+      <c r="F88" s="16"/>
       <c r="G88" s="3"/>
       <c r="H88" s="4"/>
       <c r="I88" s="5"/>
@@ -2668,7 +2666,7 @@
       <c r="C89" s="11"/>
       <c r="D89" s="12"/>
       <c r="E89" s="13"/>
-      <c r="F89" s="17"/>
+      <c r="F89" s="16"/>
       <c r="G89" s="3"/>
       <c r="H89" s="4"/>
       <c r="I89" s="5"/>
@@ -2679,7 +2677,7 @@
       <c r="C90" s="11"/>
       <c r="D90" s="12"/>
       <c r="E90" s="13"/>
-      <c r="F90" s="17"/>
+      <c r="F90" s="16"/>
       <c r="G90" s="3"/>
       <c r="H90" s="4"/>
       <c r="I90" s="5"/>
@@ -2690,7 +2688,7 @@
       <c r="C91" s="11"/>
       <c r="D91" s="12"/>
       <c r="E91" s="13"/>
-      <c r="F91" s="17"/>
+      <c r="F91" s="16"/>
       <c r="G91" s="3"/>
       <c r="H91" s="4"/>
       <c r="I91" s="5"/>
@@ -2701,7 +2699,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="12"/>
       <c r="E92" s="13"/>
-      <c r="F92" s="17"/>
+      <c r="F92" s="16"/>
       <c r="G92" s="3"/>
       <c r="H92" s="4"/>
       <c r="I92" s="5"/>
@@ -2712,7 +2710,7 @@
       <c r="C93" s="11"/>
       <c r="D93" s="12"/>
       <c r="E93" s="13"/>
-      <c r="F93" s="17"/>
+      <c r="F93" s="16"/>
       <c r="G93" s="3"/>
       <c r="H93" s="4"/>
       <c r="I93" s="5"/>
@@ -2723,7 +2721,7 @@
       <c r="C94" s="11"/>
       <c r="D94" s="12"/>
       <c r="E94" s="13"/>
-      <c r="F94" s="17"/>
+      <c r="F94" s="16"/>
       <c r="G94" s="3"/>
       <c r="H94" s="4"/>
       <c r="I94" s="5"/>
@@ -2734,7 +2732,7 @@
       <c r="C95" s="11"/>
       <c r="D95" s="12"/>
       <c r="E95" s="13"/>
-      <c r="F95" s="17"/>
+      <c r="F95" s="16"/>
       <c r="G95" s="3"/>
       <c r="H95" s="4"/>
       <c r="I95" s="5"/>
@@ -2745,7 +2743,7 @@
       <c r="C96" s="11"/>
       <c r="D96" s="12"/>
       <c r="E96" s="13"/>
-      <c r="F96" s="17"/>
+      <c r="F96" s="16"/>
       <c r="G96" s="3"/>
       <c r="H96" s="4"/>
       <c r="I96" s="5"/>
@@ -2756,7 +2754,7 @@
       <c r="C97" s="11"/>
       <c r="D97" s="12"/>
       <c r="E97" s="13"/>
-      <c r="F97" s="17"/>
+      <c r="F97" s="16"/>
       <c r="G97" s="3"/>
       <c r="H97" s="4"/>
       <c r="I97" s="5"/>
@@ -2767,7 +2765,7 @@
       <c r="C98" s="11"/>
       <c r="D98" s="12"/>
       <c r="E98" s="13"/>
-      <c r="F98" s="17"/>
+      <c r="F98" s="16"/>
       <c r="G98" s="3"/>
       <c r="H98" s="4"/>
       <c r="I98" s="5"/>
@@ -2778,7 +2776,7 @@
       <c r="C99" s="11"/>
       <c r="D99" s="12"/>
       <c r="E99" s="13"/>
-      <c r="F99" s="17"/>
+      <c r="F99" s="16"/>
       <c r="G99" s="3"/>
       <c r="H99" s="4"/>
       <c r="I99" s="5"/>
@@ -2789,7 +2787,7 @@
       <c r="C100" s="11"/>
       <c r="D100" s="12"/>
       <c r="E100" s="13"/>
-      <c r="F100" s="17"/>
+      <c r="F100" s="16"/>
       <c r="G100" s="3"/>
       <c r="H100" s="4"/>
       <c r="I100" s="5"/>
@@ -2800,7 +2798,7 @@
       <c r="C101" s="11"/>
       <c r="D101" s="12"/>
       <c r="E101" s="13"/>
-      <c r="F101" s="17"/>
+      <c r="F101" s="16"/>
       <c r="G101" s="3"/>
       <c r="H101" s="4"/>
       <c r="I101" s="5"/>
@@ -2811,7 +2809,7 @@
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
       <c r="E102" s="13"/>
-      <c r="F102" s="17"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="3"/>
       <c r="H102" s="4"/>
       <c r="I102" s="5"/>
@@ -2822,7 +2820,7 @@
       <c r="C103" s="11"/>
       <c r="D103" s="12"/>
       <c r="E103" s="13"/>
-      <c r="F103" s="17"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="3"/>
       <c r="H103" s="4"/>
       <c r="I103" s="5"/>
@@ -2833,7 +2831,7 @@
       <c r="C104" s="11"/>
       <c r="D104" s="12"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="17"/>
+      <c r="F104" s="16"/>
       <c r="G104" s="3"/>
       <c r="H104" s="4"/>
       <c r="I104" s="5"/>
@@ -2844,7 +2842,7 @@
       <c r="C105" s="11"/>
       <c r="D105" s="12"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="17"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="3"/>
       <c r="H105" s="4"/>
       <c r="I105" s="5"/>
@@ -2855,7 +2853,7 @@
       <c r="C106" s="11"/>
       <c r="D106" s="12"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="17"/>
+      <c r="F106" s="16"/>
       <c r="G106" s="3"/>
       <c r="H106" s="4"/>
       <c r="I106" s="5"/>
@@ -2866,7 +2864,7 @@
       <c r="C107" s="11"/>
       <c r="D107" s="12"/>
       <c r="E107" s="13"/>
-      <c r="F107" s="17"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="3"/>
       <c r="H107" s="4"/>
       <c r="I107" s="5"/>
@@ -2877,7 +2875,7 @@
       <c r="C108" s="11"/>
       <c r="D108" s="12"/>
       <c r="E108" s="13"/>
-      <c r="F108" s="17"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="3"/>
       <c r="H108" s="4"/>
       <c r="I108" s="5"/>
@@ -2888,7 +2886,7 @@
       <c r="C109" s="11"/>
       <c r="D109" s="12"/>
       <c r="E109" s="13"/>
-      <c r="F109" s="17"/>
+      <c r="F109" s="16"/>
       <c r="G109" s="3"/>
       <c r="H109" s="4"/>
       <c r="I109" s="5"/>
@@ -2899,7 +2897,7 @@
       <c r="C110" s="11"/>
       <c r="D110" s="12"/>
       <c r="E110" s="13"/>
-      <c r="F110" s="17"/>
+      <c r="F110" s="16"/>
       <c r="G110" s="3"/>
       <c r="H110" s="4"/>
       <c r="I110" s="5"/>
@@ -2910,7 +2908,7 @@
       <c r="C111" s="11"/>
       <c r="D111" s="12"/>
       <c r="E111" s="13"/>
-      <c r="F111" s="17"/>
+      <c r="F111" s="16"/>
       <c r="G111" s="3"/>
       <c r="H111" s="4"/>
       <c r="I111" s="5"/>
@@ -2921,7 +2919,7 @@
       <c r="C112" s="11"/>
       <c r="D112" s="12"/>
       <c r="E112" s="13"/>
-      <c r="F112" s="17"/>
+      <c r="F112" s="16"/>
       <c r="G112" s="3"/>
       <c r="H112" s="4"/>
       <c r="I112" s="5"/>
@@ -2932,7 +2930,7 @@
       <c r="C113" s="11"/>
       <c r="D113" s="12"/>
       <c r="E113" s="13"/>
-      <c r="F113" s="17"/>
+      <c r="F113" s="16"/>
       <c r="G113" s="3"/>
       <c r="H113" s="4"/>
       <c r="I113" s="5"/>
@@ -2943,7 +2941,7 @@
       <c r="C114" s="11"/>
       <c r="D114" s="12"/>
       <c r="E114" s="13"/>
-      <c r="F114" s="17"/>
+      <c r="F114" s="16"/>
       <c r="G114" s="3"/>
       <c r="H114" s="4"/>
       <c r="I114" s="5"/>
@@ -2954,7 +2952,7 @@
       <c r="C115" s="11"/>
       <c r="D115" s="12"/>
       <c r="E115" s="13"/>
-      <c r="F115" s="17"/>
+      <c r="F115" s="16"/>
       <c r="G115" s="3"/>
       <c r="H115" s="4"/>
       <c r="I115" s="5"/>
@@ -2965,7 +2963,7 @@
       <c r="C116" s="11"/>
       <c r="D116" s="12"/>
       <c r="E116" s="13"/>
-      <c r="F116" s="17"/>
+      <c r="F116" s="16"/>
       <c r="G116" s="3"/>
       <c r="H116" s="4"/>
       <c r="I116" s="5"/>
@@ -2976,7 +2974,7 @@
       <c r="C117" s="11"/>
       <c r="D117" s="12"/>
       <c r="E117" s="13"/>
-      <c r="F117" s="17"/>
+      <c r="F117" s="16"/>
       <c r="G117" s="3"/>
       <c r="H117" s="4"/>
       <c r="I117" s="5"/>
@@ -2987,7 +2985,7 @@
       <c r="C118" s="11"/>
       <c r="D118" s="12"/>
       <c r="E118" s="13"/>
-      <c r="F118" s="17"/>
+      <c r="F118" s="16"/>
       <c r="G118" s="3"/>
       <c r="H118" s="4"/>
       <c r="I118" s="5"/>
@@ -2998,7 +2996,7 @@
       <c r="C119" s="11"/>
       <c r="D119" s="12"/>
       <c r="E119" s="13"/>
-      <c r="F119" s="17"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="3"/>
       <c r="H119" s="4"/>
       <c r="I119" s="5"/>
@@ -3009,7 +3007,7 @@
       <c r="C120" s="11"/>
       <c r="D120" s="12"/>
       <c r="E120" s="13"/>
-      <c r="F120" s="17"/>
+      <c r="F120" s="16"/>
       <c r="G120" s="3"/>
       <c r="H120" s="4"/>
       <c r="I120" s="5"/>
@@ -3020,7 +3018,7 @@
       <c r="C121" s="11"/>
       <c r="D121" s="12"/>
       <c r="E121" s="13"/>
-      <c r="F121" s="17"/>
+      <c r="F121" s="16"/>
       <c r="G121" s="3"/>
       <c r="H121" s="4"/>
       <c r="I121" s="5"/>
@@ -3031,7 +3029,7 @@
       <c r="C122" s="11"/>
       <c r="D122" s="12"/>
       <c r="E122" s="13"/>
-      <c r="F122" s="17"/>
+      <c r="F122" s="16"/>
       <c r="G122" s="3"/>
       <c r="H122" s="4"/>
       <c r="I122" s="5"/>
@@ -3042,7 +3040,7 @@
       <c r="C123" s="11"/>
       <c r="D123" s="12"/>
       <c r="E123" s="13"/>
-      <c r="F123" s="17"/>
+      <c r="F123" s="16"/>
       <c r="G123" s="3"/>
       <c r="H123" s="4"/>
       <c r="I123" s="5"/>
@@ -3053,7 +3051,7 @@
       <c r="C124" s="11"/>
       <c r="D124" s="12"/>
       <c r="E124" s="13"/>
-      <c r="F124" s="17"/>
+      <c r="F124" s="16"/>
       <c r="G124" s="3"/>
       <c r="H124" s="4"/>
       <c r="I124" s="5"/>
@@ -3064,7 +3062,7 @@
       <c r="C125" s="11"/>
       <c r="D125" s="12"/>
       <c r="E125" s="13"/>
-      <c r="F125" s="17"/>
+      <c r="F125" s="16"/>
       <c r="G125" s="3"/>
       <c r="H125" s="4"/>
       <c r="I125" s="5"/>
@@ -3075,7 +3073,7 @@
       <c r="C126" s="11"/>
       <c r="D126" s="12"/>
       <c r="E126" s="13"/>
-      <c r="F126" s="17"/>
+      <c r="F126" s="16"/>
       <c r="G126" s="3"/>
       <c r="H126" s="4"/>
       <c r="I126" s="5"/>
@@ -3086,7 +3084,7 @@
       <c r="C127" s="11"/>
       <c r="D127" s="12"/>
       <c r="E127" s="13"/>
-      <c r="F127" s="17"/>
+      <c r="F127" s="16"/>
       <c r="G127" s="3"/>
       <c r="H127" s="4"/>
       <c r="I127" s="5"/>
@@ -3097,7 +3095,7 @@
       <c r="C128" s="11"/>
       <c r="D128" s="12"/>
       <c r="E128" s="13"/>
-      <c r="F128" s="17"/>
+      <c r="F128" s="16"/>
       <c r="G128" s="3"/>
       <c r="H128" s="4"/>
       <c r="I128" s="5"/>
@@ -3108,7 +3106,7 @@
       <c r="C129" s="11"/>
       <c r="D129" s="12"/>
       <c r="E129" s="13"/>
-      <c r="F129" s="17"/>
+      <c r="F129" s="16"/>
       <c r="G129" s="3"/>
       <c r="H129" s="4"/>
       <c r="I129" s="5"/>
@@ -3119,7 +3117,7 @@
       <c r="C130" s="11"/>
       <c r="D130" s="12"/>
       <c r="E130" s="13"/>
-      <c r="F130" s="17"/>
+      <c r="F130" s="16"/>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
       <c r="I130" s="5"/>
@@ -3130,7 +3128,7 @@
       <c r="C131" s="11"/>
       <c r="D131" s="12"/>
       <c r="E131" s="13"/>
-      <c r="F131" s="17"/>
+      <c r="F131" s="16"/>
       <c r="G131" s="3"/>
       <c r="H131" s="4"/>
       <c r="I131" s="5"/>
@@ -3141,7 +3139,7 @@
       <c r="C132" s="11"/>
       <c r="D132" s="12"/>
       <c r="E132" s="13"/>
-      <c r="F132" s="17"/>
+      <c r="F132" s="16"/>
       <c r="G132" s="3"/>
       <c r="H132" s="4"/>
       <c r="I132" s="5"/>
@@ -3152,7 +3150,7 @@
       <c r="C133" s="11"/>
       <c r="D133" s="12"/>
       <c r="E133" s="13"/>
-      <c r="F133" s="17"/>
+      <c r="F133" s="16"/>
       <c r="G133" s="3"/>
       <c r="H133" s="4"/>
       <c r="I133" s="5"/>
@@ -3163,7 +3161,7 @@
       <c r="C134" s="11"/>
       <c r="D134" s="12"/>
       <c r="E134" s="13"/>
-      <c r="F134" s="17"/>
+      <c r="F134" s="16"/>
       <c r="G134" s="3"/>
       <c r="H134" s="4"/>
       <c r="I134" s="5"/>
@@ -3174,7 +3172,7 @@
       <c r="C135" s="11"/>
       <c r="D135" s="12"/>
       <c r="E135" s="13"/>
-      <c r="F135" s="17"/>
+      <c r="F135" s="16"/>
       <c r="G135" s="3"/>
       <c r="H135" s="4"/>
       <c r="I135" s="5"/>
@@ -3185,7 +3183,7 @@
       <c r="C136" s="11"/>
       <c r="D136" s="12"/>
       <c r="E136" s="13"/>
-      <c r="F136" s="17"/>
+      <c r="F136" s="16"/>
       <c r="G136" s="3"/>
       <c r="H136" s="4"/>
       <c r="I136" s="5"/>
@@ -3196,7 +3194,7 @@
       <c r="C137" s="11"/>
       <c r="D137" s="12"/>
       <c r="E137" s="13"/>
-      <c r="F137" s="17"/>
+      <c r="F137" s="16"/>
       <c r="G137" s="3"/>
       <c r="H137" s="4"/>
       <c r="I137" s="5"/>
@@ -3207,7 +3205,7 @@
       <c r="C138" s="11"/>
       <c r="D138" s="12"/>
       <c r="E138" s="13"/>
-      <c r="F138" s="17"/>
+      <c r="F138" s="16"/>
       <c r="G138" s="3"/>
       <c r="H138" s="4"/>
       <c r="I138" s="5"/>
@@ -3218,7 +3216,7 @@
       <c r="C139" s="11"/>
       <c r="D139" s="12"/>
       <c r="E139" s="13"/>
-      <c r="F139" s="17"/>
+      <c r="F139" s="16"/>
       <c r="G139" s="3"/>
       <c r="H139" s="4"/>
       <c r="I139" s="5"/>
@@ -3229,7 +3227,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="12"/>
       <c r="E140" s="13"/>
-      <c r="F140" s="17"/>
+      <c r="F140" s="16"/>
       <c r="G140" s="3"/>
       <c r="H140" s="4"/>
       <c r="I140" s="5"/>
@@ -3240,7 +3238,7 @@
       <c r="C141" s="11"/>
       <c r="D141" s="12"/>
       <c r="E141" s="13"/>
-      <c r="F141" s="17"/>
+      <c r="F141" s="16"/>
       <c r="G141" s="3"/>
       <c r="H141" s="4"/>
       <c r="I141" s="5"/>
@@ -3251,7 +3249,7 @@
       <c r="C142" s="11"/>
       <c r="D142" s="12"/>
       <c r="E142" s="13"/>
-      <c r="F142" s="17"/>
+      <c r="F142" s="16"/>
       <c r="G142" s="3"/>
       <c r="H142" s="4"/>
       <c r="I142" s="5"/>
@@ -3262,7 +3260,7 @@
       <c r="C143" s="11"/>
       <c r="D143" s="12"/>
       <c r="E143" s="13"/>
-      <c r="F143" s="17"/>
+      <c r="F143" s="16"/>
       <c r="G143" s="3"/>
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
@@ -3273,7 +3271,7 @@
       <c r="C144" s="11"/>
       <c r="D144" s="12"/>
       <c r="E144" s="13"/>
-      <c r="F144" s="17"/>
+      <c r="F144" s="16"/>
       <c r="G144" s="3"/>
       <c r="H144" s="4"/>
       <c r="I144" s="5"/>
@@ -3284,7 +3282,7 @@
       <c r="C145" s="11"/>
       <c r="D145" s="12"/>
       <c r="E145" s="13"/>
-      <c r="F145" s="17"/>
+      <c r="F145" s="16"/>
       <c r="G145" s="3"/>
       <c r="H145" s="4"/>
       <c r="I145" s="5"/>
@@ -3295,7 +3293,7 @@
       <c r="C146" s="11"/>
       <c r="D146" s="12"/>
       <c r="E146" s="13"/>
-      <c r="F146" s="17"/>
+      <c r="F146" s="16"/>
       <c r="G146" s="3"/>
       <c r="H146" s="4"/>
       <c r="I146" s="5"/>
@@ -3306,7 +3304,7 @@
       <c r="C147" s="11"/>
       <c r="D147" s="12"/>
       <c r="E147" s="13"/>
-      <c r="F147" s="17"/>
+      <c r="F147" s="16"/>
       <c r="G147" s="3"/>
       <c r="H147" s="4"/>
       <c r="I147" s="5"/>
@@ -3317,7 +3315,7 @@
       <c r="C148" s="11"/>
       <c r="D148" s="12"/>
       <c r="E148" s="13"/>
-      <c r="F148" s="17"/>
+      <c r="F148" s="16"/>
       <c r="G148" s="3"/>
       <c r="H148" s="4"/>
       <c r="I148" s="5"/>
@@ -3328,7 +3326,7 @@
       <c r="C149" s="11"/>
       <c r="D149" s="12"/>
       <c r="E149" s="13"/>
-      <c r="F149" s="17"/>
+      <c r="F149" s="16"/>
       <c r="G149" s="3"/>
       <c r="H149" s="4"/>
       <c r="I149" s="5"/>
@@ -3339,7 +3337,7 @@
       <c r="C150" s="11"/>
       <c r="D150" s="12"/>
       <c r="E150" s="13"/>
-      <c r="F150" s="17"/>
+      <c r="F150" s="16"/>
       <c r="G150" s="3"/>
       <c r="H150" s="4"/>
       <c r="I150" s="5"/>
@@ -3350,7 +3348,7 @@
       <c r="C151" s="11"/>
       <c r="D151" s="12"/>
       <c r="E151" s="13"/>
-      <c r="F151" s="17"/>
+      <c r="F151" s="16"/>
       <c r="G151" s="3"/>
       <c r="H151" s="4"/>
       <c r="I151" s="5"/>
@@ -3361,7 +3359,7 @@
       <c r="C152" s="11"/>
       <c r="D152" s="12"/>
       <c r="E152" s="13"/>
-      <c r="F152" s="17"/>
+      <c r="F152" s="16"/>
       <c r="G152" s="3"/>
       <c r="H152" s="4"/>
       <c r="I152" s="5"/>
@@ -3372,7 +3370,7 @@
       <c r="C153" s="11"/>
       <c r="D153" s="12"/>
       <c r="E153" s="13"/>
-      <c r="F153" s="17"/>
+      <c r="F153" s="16"/>
       <c r="G153" s="3"/>
       <c r="H153" s="4"/>
       <c r="I153" s="5"/>
@@ -3383,7 +3381,7 @@
       <c r="C154" s="11"/>
       <c r="D154" s="12"/>
       <c r="E154" s="13"/>
-      <c r="F154" s="17"/>
+      <c r="F154" s="16"/>
       <c r="G154" s="3"/>
       <c r="H154" s="4"/>
       <c r="I154" s="5"/>
@@ -3394,7 +3392,7 @@
       <c r="C155" s="11"/>
       <c r="D155" s="12"/>
       <c r="E155" s="13"/>
-      <c r="F155" s="17"/>
+      <c r="F155" s="16"/>
       <c r="G155" s="3"/>
       <c r="H155" s="4"/>
       <c r="I155" s="5"/>
@@ -3405,7 +3403,7 @@
       <c r="C156" s="11"/>
       <c r="D156" s="12"/>
       <c r="E156" s="13"/>
-      <c r="F156" s="17"/>
+      <c r="F156" s="16"/>
       <c r="G156" s="3"/>
       <c r="H156" s="4"/>
       <c r="I156" s="5"/>
@@ -3416,7 +3414,7 @@
       <c r="C157" s="11"/>
       <c r="D157" s="12"/>
       <c r="E157" s="13"/>
-      <c r="F157" s="17"/>
+      <c r="F157" s="16"/>
       <c r="G157" s="3"/>
       <c r="H157" s="4"/>
       <c r="I157" s="5"/>
@@ -3427,7 +3425,7 @@
       <c r="C158" s="11"/>
       <c r="D158" s="12"/>
       <c r="E158" s="13"/>
-      <c r="F158" s="17"/>
+      <c r="F158" s="16"/>
       <c r="G158" s="3"/>
       <c r="H158" s="4"/>
       <c r="I158" s="5"/>
@@ -3438,7 +3436,7 @@
       <c r="C159" s="11"/>
       <c r="D159" s="12"/>
       <c r="E159" s="13"/>
-      <c r="F159" s="17"/>
+      <c r="F159" s="16"/>
       <c r="G159" s="3"/>
       <c r="H159" s="4"/>
       <c r="I159" s="5"/>
@@ -3449,7 +3447,7 @@
       <c r="C160" s="11"/>
       <c r="D160" s="12"/>
       <c r="E160" s="13"/>
-      <c r="F160" s="17"/>
+      <c r="F160" s="16"/>
       <c r="G160" s="3"/>
       <c r="H160" s="4"/>
       <c r="I160" s="5"/>
@@ -3460,7 +3458,7 @@
       <c r="C161" s="11"/>
       <c r="D161" s="12"/>
       <c r="E161" s="13"/>
-      <c r="F161" s="17"/>
+      <c r="F161" s="16"/>
       <c r="G161" s="3"/>
       <c r="H161" s="4"/>
       <c r="I161" s="5"/>
@@ -3471,7 +3469,7 @@
       <c r="C162" s="11"/>
       <c r="D162" s="12"/>
       <c r="E162" s="13"/>
-      <c r="F162" s="17"/>
+      <c r="F162" s="16"/>
       <c r="G162" s="3"/>
       <c r="H162" s="4"/>
       <c r="I162" s="5"/>
@@ -3482,7 +3480,7 @@
       <c r="C163" s="11"/>
       <c r="D163" s="12"/>
       <c r="E163" s="13"/>
-      <c r="F163" s="17"/>
+      <c r="F163" s="16"/>
       <c r="G163" s="3"/>
       <c r="H163" s="4"/>
       <c r="I163" s="5"/>
@@ -3493,7 +3491,7 @@
       <c r="C164" s="11"/>
       <c r="D164" s="12"/>
       <c r="E164" s="13"/>
-      <c r="F164" s="17"/>
+      <c r="F164" s="16"/>
       <c r="G164" s="3"/>
       <c r="H164" s="4"/>
       <c r="I164" s="5"/>
@@ -3504,7 +3502,7 @@
       <c r="C165" s="11"/>
       <c r="D165" s="12"/>
       <c r="E165" s="13"/>
-      <c r="F165" s="17"/>
+      <c r="F165" s="16"/>
       <c r="G165" s="3"/>
       <c r="H165" s="4"/>
       <c r="I165" s="5"/>
@@ -3515,7 +3513,7 @@
       <c r="C166" s="11"/>
       <c r="D166" s="12"/>
       <c r="E166" s="13"/>
-      <c r="F166" s="17"/>
+      <c r="F166" s="16"/>
       <c r="G166" s="3"/>
       <c r="H166" s="4"/>
       <c r="I166" s="5"/>
@@ -3526,7 +3524,7 @@
       <c r="C167" s="11"/>
       <c r="D167" s="12"/>
       <c r="E167" s="13"/>
-      <c r="F167" s="17"/>
+      <c r="F167" s="16"/>
       <c r="G167" s="3"/>
       <c r="H167" s="4"/>
       <c r="I167" s="5"/>
@@ -3537,7 +3535,7 @@
       <c r="C168" s="11"/>
       <c r="D168" s="12"/>
       <c r="E168" s="13"/>
-      <c r="F168" s="17"/>
+      <c r="F168" s="16"/>
       <c r="G168" s="3"/>
       <c r="H168" s="4"/>
       <c r="I168" s="5"/>
@@ -3548,7 +3546,7 @@
       <c r="C169" s="11"/>
       <c r="D169" s="12"/>
       <c r="E169" s="13"/>
-      <c r="F169" s="17"/>
+      <c r="F169" s="16"/>
       <c r="G169" s="3"/>
       <c r="H169" s="4"/>
       <c r="I169" s="5"/>
@@ -3559,7 +3557,7 @@
       <c r="C170" s="11"/>
       <c r="D170" s="12"/>
       <c r="E170" s="13"/>
-      <c r="F170" s="17"/>
+      <c r="F170" s="16"/>
       <c r="G170" s="3"/>
       <c r="H170" s="4"/>
       <c r="I170" s="5"/>
@@ -3570,7 +3568,7 @@
       <c r="C171" s="11"/>
       <c r="D171" s="12"/>
       <c r="E171" s="13"/>
-      <c r="F171" s="17"/>
+      <c r="F171" s="16"/>
       <c r="G171" s="3"/>
       <c r="H171" s="4"/>
       <c r="I171" s="5"/>
@@ -3581,7 +3579,7 @@
       <c r="C172" s="11"/>
       <c r="D172" s="12"/>
       <c r="E172" s="13"/>
-      <c r="F172" s="17"/>
+      <c r="F172" s="16"/>
       <c r="G172" s="3"/>
       <c r="H172" s="4"/>
       <c r="I172" s="5"/>
@@ -3592,7 +3590,7 @@
       <c r="C173" s="11"/>
       <c r="D173" s="12"/>
       <c r="E173" s="13"/>
-      <c r="F173" s="17"/>
+      <c r="F173" s="16"/>
       <c r="G173" s="3"/>
       <c r="H173" s="4"/>
       <c r="I173" s="5"/>
@@ -3603,7 +3601,7 @@
       <c r="C174" s="11"/>
       <c r="D174" s="12"/>
       <c r="E174" s="13"/>
-      <c r="F174" s="17"/>
+      <c r="F174" s="16"/>
       <c r="G174" s="3"/>
       <c r="H174" s="4"/>
       <c r="I174" s="5"/>
@@ -3614,7 +3612,7 @@
       <c r="C175" s="11"/>
       <c r="D175" s="12"/>
       <c r="E175" s="13"/>
-      <c r="F175" s="17"/>
+      <c r="F175" s="16"/>
       <c r="G175" s="3"/>
       <c r="H175" s="4"/>
       <c r="I175" s="5"/>
@@ -3625,7 +3623,7 @@
       <c r="C176" s="11"/>
       <c r="D176" s="12"/>
       <c r="E176" s="13"/>
-      <c r="F176" s="17"/>
+      <c r="F176" s="16"/>
       <c r="G176" s="3"/>
       <c r="H176" s="4"/>
       <c r="I176" s="5"/>
@@ -3636,7 +3634,7 @@
       <c r="C177" s="11"/>
       <c r="D177" s="12"/>
       <c r="E177" s="13"/>
-      <c r="F177" s="17"/>
+      <c r="F177" s="16"/>
       <c r="G177" s="3"/>
       <c r="H177" s="4"/>
       <c r="I177" s="5"/>
@@ -3647,7 +3645,7 @@
       <c r="C178" s="11"/>
       <c r="D178" s="12"/>
       <c r="E178" s="13"/>
-      <c r="F178" s="17"/>
+      <c r="F178" s="16"/>
       <c r="G178" s="3"/>
       <c r="H178" s="4"/>
       <c r="I178" s="5"/>
@@ -3658,7 +3656,7 @@
       <c r="C179" s="11"/>
       <c r="D179" s="12"/>
       <c r="E179" s="13"/>
-      <c r="F179" s="17"/>
+      <c r="F179" s="16"/>
       <c r="G179" s="3"/>
       <c r="H179" s="4"/>
       <c r="I179" s="5"/>
@@ -3669,7 +3667,7 @@
       <c r="C180" s="11"/>
       <c r="D180" s="12"/>
       <c r="E180" s="13"/>
-      <c r="F180" s="17"/>
+      <c r="F180" s="16"/>
       <c r="G180" s="3"/>
       <c r="H180" s="4"/>
       <c r="I180" s="5"/>
@@ -3680,7 +3678,7 @@
       <c r="C181" s="11"/>
       <c r="D181" s="12"/>
       <c r="E181" s="13"/>
-      <c r="F181" s="17"/>
+      <c r="F181" s="16"/>
       <c r="G181" s="3"/>
       <c r="H181" s="4"/>
       <c r="I181" s="5"/>
@@ -3691,7 +3689,7 @@
       <c r="C182" s="11"/>
       <c r="D182" s="12"/>
       <c r="E182" s="13"/>
-      <c r="F182" s="17"/>
+      <c r="F182" s="16"/>
       <c r="G182" s="3"/>
       <c r="H182" s="4"/>
       <c r="I182" s="5"/>
@@ -3702,7 +3700,7 @@
       <c r="C183" s="11"/>
       <c r="D183" s="12"/>
       <c r="E183" s="13"/>
-      <c r="F183" s="17"/>
+      <c r="F183" s="16"/>
       <c r="G183" s="3"/>
       <c r="H183" s="4"/>
       <c r="I183" s="5"/>
@@ -3713,7 +3711,7 @@
       <c r="C184" s="11"/>
       <c r="D184" s="12"/>
       <c r="E184" s="13"/>
-      <c r="F184" s="17"/>
+      <c r="F184" s="16"/>
       <c r="G184" s="3"/>
       <c r="H184" s="4"/>
       <c r="I184" s="5"/>
@@ -3724,7 +3722,7 @@
       <c r="C185" s="11"/>
       <c r="D185" s="12"/>
       <c r="E185" s="13"/>
-      <c r="F185" s="17"/>
+      <c r="F185" s="16"/>
       <c r="G185" s="3"/>
       <c r="H185" s="4"/>
       <c r="I185" s="5"/>
@@ -3735,7 +3733,7 @@
       <c r="C186" s="11"/>
       <c r="D186" s="12"/>
       <c r="E186" s="13"/>
-      <c r="F186" s="17"/>
+      <c r="F186" s="16"/>
       <c r="G186" s="3"/>
       <c r="H186" s="4"/>
       <c r="I186" s="5"/>
@@ -3746,7 +3744,7 @@
       <c r="C187" s="11"/>
       <c r="D187" s="12"/>
       <c r="E187" s="13"/>
-      <c r="F187" s="17"/>
+      <c r="F187" s="16"/>
       <c r="G187" s="3"/>
       <c r="H187" s="4"/>
       <c r="I187" s="5"/>
@@ -3757,7 +3755,7 @@
       <c r="C188" s="11"/>
       <c r="D188" s="12"/>
       <c r="E188" s="13"/>
-      <c r="F188" s="17"/>
+      <c r="F188" s="16"/>
       <c r="G188" s="3"/>
       <c r="H188" s="4"/>
       <c r="I188" s="5"/>
@@ -3768,7 +3766,7 @@
       <c r="C189" s="11"/>
       <c r="D189" s="12"/>
       <c r="E189" s="13"/>
-      <c r="F189" s="17"/>
+      <c r="F189" s="16"/>
       <c r="G189" s="3"/>
       <c r="H189" s="4"/>
       <c r="I189" s="5"/>
@@ -3779,7 +3777,7 @@
       <c r="C190" s="11"/>
       <c r="D190" s="12"/>
       <c r="E190" s="13"/>
-      <c r="F190" s="17"/>
+      <c r="F190" s="16"/>
       <c r="G190" s="3"/>
       <c r="H190" s="4"/>
       <c r="I190" s="5"/>
@@ -3790,7 +3788,7 @@
       <c r="C191" s="11"/>
       <c r="D191" s="12"/>
       <c r="E191" s="13"/>
-      <c r="F191" s="17"/>
+      <c r="F191" s="16"/>
       <c r="G191" s="3"/>
       <c r="H191" s="4"/>
       <c r="I191" s="5"/>
@@ -3801,7 +3799,7 @@
       <c r="C192" s="11"/>
       <c r="D192" s="12"/>
       <c r="E192" s="13"/>
-      <c r="F192" s="17"/>
+      <c r="F192" s="16"/>
       <c r="G192" s="3"/>
       <c r="H192" s="4"/>
       <c r="I192" s="5"/>
@@ -3812,7 +3810,7 @@
       <c r="C193" s="11"/>
       <c r="D193" s="12"/>
       <c r="E193" s="13"/>
-      <c r="F193" s="17"/>
+      <c r="F193" s="16"/>
       <c r="G193" s="3"/>
       <c r="H193" s="4"/>
       <c r="I193" s="5"/>
